--- a/examples/Данные для теста 2.xlsx
+++ b/examples/Данные для теста 2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexader\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student28\Desktop\app\pyside6-app\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8856FDD8-01B9-493C-9177-665A469BEB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
   <si>
     <t>Ф.И.О.</t>
   </si>
@@ -160,12 +159,15 @@
   </si>
   <si>
     <t>Кузьмин Кузьма Кузьмич</t>
+  </si>
+  <si>
+    <t>31.04.2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -505,23 +507,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -546,10 +548,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="4">
-        <v>45354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -560,10 +562,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="4">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -574,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="4">
-        <v>45361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -588,10 +590,10 @@
         <v>11</v>
       </c>
       <c r="D5" s="4">
-        <v>45362</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -602,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="4">
-        <v>45353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -616,10 +618,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="4">
-        <v>45357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -630,10 +632,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="4">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -644,10 +646,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="4">
-        <v>45352</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -658,10 +660,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>45355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -672,10 +674,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="4">
-        <v>45360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -686,10 +688,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>45358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
@@ -700,10 +702,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="4">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -714,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="4">
-        <v>45361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -728,10 +730,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="4">
-        <v>45362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -742,10 +744,10 @@
         <v>9</v>
       </c>
       <c r="D16" s="4">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -756,10 +758,10 @@
         <v>9</v>
       </c>
       <c r="D17" s="4">
-        <v>45356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -770,10 +772,10 @@
         <v>30</v>
       </c>
       <c r="D18" s="4">
-        <v>45357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -784,10 +786,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="4">
-        <v>45358</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -798,10 +800,10 @@
         <v>9</v>
       </c>
       <c r="D20" s="4">
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -812,10 +814,10 @@
         <v>9</v>
       </c>
       <c r="D21" s="4">
-        <v>45360</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -826,10 +828,10 @@
         <v>9</v>
       </c>
       <c r="D22" s="4">
-        <v>45361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -840,10 +842,10 @@
         <v>11</v>
       </c>
       <c r="D23" s="4">
-        <v>45362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -854,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="D24" s="4">
-        <v>45363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -868,10 +870,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="4">
-        <v>45364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>36</v>
       </c>
@@ -882,10 +884,10 @@
         <v>9</v>
       </c>
       <c r="D26" s="4">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -896,10 +898,10 @@
         <v>9</v>
       </c>
       <c r="D27" s="4">
-        <v>45366</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>36</v>
       </c>
@@ -910,10 +912,10 @@
         <v>9</v>
       </c>
       <c r="D28" s="4">
-        <v>45367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>37</v>
       </c>
@@ -924,10 +926,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="4">
-        <v>45368</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
@@ -938,10 +940,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="4">
-        <v>45369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -952,10 +954,10 @@
         <v>11</v>
       </c>
       <c r="D31" s="4">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>38</v>
       </c>
@@ -966,10 +968,10 @@
         <v>9</v>
       </c>
       <c r="D32" s="4">
-        <v>45371</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>38</v>
       </c>
@@ -980,10 +982,10 @@
         <v>9</v>
       </c>
       <c r="D33" s="4">
-        <v>45372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -994,10 +996,10 @@
         <v>9</v>
       </c>
       <c r="D34" s="4">
-        <v>45373</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
@@ -1008,10 +1010,10 @@
         <v>14</v>
       </c>
       <c r="D35" s="4">
-        <v>45374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
@@ -1022,10 +1024,10 @@
         <v>9</v>
       </c>
       <c r="D36" s="4">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1036,10 +1038,10 @@
         <v>9</v>
       </c>
       <c r="D37" s="4">
-        <v>45376</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
@@ -1050,10 +1052,10 @@
         <v>11</v>
       </c>
       <c r="D38" s="4">
-        <v>45377</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
@@ -1064,10 +1066,10 @@
         <v>9</v>
       </c>
       <c r="D39" s="4">
-        <v>45378</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1078,10 +1080,10 @@
         <v>9</v>
       </c>
       <c r="D40" s="4">
-        <v>45379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1092,10 +1094,10 @@
         <v>9</v>
       </c>
       <c r="D41" s="4">
-        <v>45380</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -1106,10 +1108,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="4">
-        <v>45381</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -1119,11 +1121,11 @@
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="4">
-        <v>45382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="D43" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -1134,10 +1136,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="4">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>42</v>
       </c>
@@ -1148,10 +1150,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="4">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
@@ -1162,10 +1164,10 @@
         <v>11</v>
       </c>
       <c r="D46" s="4">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>43</v>
       </c>
@@ -1176,10 +1178,10 @@
         <v>9</v>
       </c>
       <c r="D47" s="4">
-        <v>45386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45416</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>43</v>
       </c>
@@ -1190,10 +1192,10 @@
         <v>9</v>
       </c>
       <c r="D48" s="4">
-        <v>45387</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="40.799999999999997" x14ac:dyDescent="0.3">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -1204,10 +1206,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="4">
-        <v>45388</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -1218,10 +1220,10 @@
         <v>14</v>
       </c>
       <c r="D50" s="4">
-        <v>45389</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>44</v>
       </c>
@@ -1232,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="4">
-        <v>45390</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30.6" x14ac:dyDescent="0.3">
+        <v>45420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
@@ -1246,7 +1248,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="4">
-        <v>45391</v>
+        <v>45421</v>
       </c>
     </row>
   </sheetData>
